--- a/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
@@ -435,16 +435,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.1465927451784654</v>
+        <v>-0.01507471700647312</v>
       </c>
       <c r="D2">
-        <v>-0.6822076519719952</v>
+        <v>-0.2521745234374141</v>
       </c>
       <c r="E2">
-        <v>-0.2294542811538192</v>
+        <v>-0.03047002014276641</v>
       </c>
       <c r="F2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,16 +455,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.2401829595734004</v>
+        <v>-0.1027796484181133</v>
       </c>
       <c r="D3">
-        <v>-1.028918805864534</v>
+        <v>-0.6534741519118263</v>
       </c>
       <c r="E3">
-        <v>-0.3004289898376606</v>
+        <v>-0.1439447748809047</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,16 +475,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1002100762843821</v>
+        <v>-0.01528345473664927</v>
       </c>
       <c r="D4">
-        <v>-0.5207005160270279</v>
+        <v>-0.2541040273236627</v>
       </c>
       <c r="E4">
-        <v>-0.218358812507443</v>
+        <v>-0.05338730059917202</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,16 +495,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.01436719288552024</v>
+        <v>0.03521365116463127</v>
       </c>
       <c r="D5">
-        <v>-0.2028407746565622</v>
+        <v>-0.02207212207691567</v>
       </c>
       <c r="E5">
-        <v>-0.04547736553281244</v>
+        <v>0.1263108442771608</v>
       </c>
       <c r="F5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +515,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.08639846314036337</v>
+        <v>-0.02508792639863355</v>
       </c>
       <c r="D6">
-        <v>-0.4723433395703678</v>
+        <v>-0.3001469334749849</v>
       </c>
       <c r="E6">
-        <v>-0.1648674631521655</v>
+        <v>-0.05731348143092785</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>参数</t>
   </si>
@@ -47,6 +47,39 @@
   </si>
   <si>
     <t>[36, 6, 6]</t>
+  </si>
+  <si>
+    <t>[49, 7, 7]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[64, 8, 8]</t>
+  </si>
+  <si>
+    <t>[81, 9, 9]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 4, 4]</t>
+  </si>
+  <si>
+    <t>[5, 5, 5]</t>
+  </si>
+  <si>
+    <t>[6, 6, 6]</t>
+  </si>
+  <si>
+    <t>[7, 7, 7]</t>
+  </si>
+  <si>
+    <t>[8, 8, 8]</t>
+  </si>
+  <si>
+    <t>[9, 9, 9]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,6 +560,226 @@
         <v>0.55</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.1029466032940376</v>
+      </c>
+      <c r="D7">
+        <v>0.2924196208025606</v>
+      </c>
+      <c r="E7">
+        <v>0.3536464928439015</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.04475959407912544</v>
+      </c>
+      <c r="D8">
+        <v>0.0218204089664473</v>
+      </c>
+      <c r="E8">
+        <v>0.07096586264303814</v>
+      </c>
+      <c r="F8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>-0.02794692426982881</v>
+      </c>
+      <c r="D9">
+        <v>-0.3173062321975005</v>
+      </c>
+      <c r="E9">
+        <v>-0.04886987508578253</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>-0.03873147051204029</v>
+      </c>
+      <c r="D10">
+        <v>-0.3690375080390432</v>
+      </c>
+      <c r="E10">
+        <v>-0.06806235558596836</v>
+      </c>
+      <c r="F10">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>-0.09473585649630567</v>
+      </c>
+      <c r="D11">
+        <v>-0.6163041754524166</v>
+      </c>
+      <c r="E11">
+        <v>-0.1540848235464702</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>-0.02177138929265499</v>
+      </c>
+      <c r="D12">
+        <v>-0.283504588115722</v>
+      </c>
+      <c r="E12">
+        <v>-0.03619962848741284</v>
+      </c>
+      <c r="F12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>-0.02014736576061671</v>
+      </c>
+      <c r="D13">
+        <v>-0.2756697107984596</v>
+      </c>
+      <c r="E13">
+        <v>-0.04506258144740797</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>-0.06751483124827995</v>
+      </c>
+      <c r="D14">
+        <v>-0.4933303843108038</v>
+      </c>
+      <c r="E14">
+        <v>-0.1179215644647014</v>
+      </c>
+      <c r="F14">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>-0.06871296685312966</v>
+      </c>
+      <c r="D15">
+        <v>-0.4997315570484756</v>
+      </c>
+      <c r="E15">
+        <v>-0.1380552278771606</v>
+      </c>
+      <c r="F15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.02134188938962311</v>
+      </c>
+      <c r="D16">
+        <v>-0.08591962411216303</v>
+      </c>
+      <c r="E16">
+        <v>0.06411464392037687</v>
+      </c>
+      <c r="F16">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0.03540793395269226</v>
+      </c>
+      <c r="D17">
+        <v>-0.02117512795191881</v>
+      </c>
+      <c r="E17">
+        <v>0.09113295704401064</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>参数</t>
   </si>
@@ -52,34 +52,13 @@
     <t>[49, 7, 7]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[64, 8, 8]</t>
   </si>
   <si>
     <t>[81, 9, 9]</t>
   </si>
   <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 4, 4]</t>
-  </si>
-  <si>
-    <t>[5, 5, 5]</t>
-  </si>
-  <si>
-    <t>[6, 6, 6]</t>
-  </si>
-  <si>
-    <t>[7, 7, 7]</t>
-  </si>
-  <si>
-    <t>[8, 8, 8]</t>
-  </si>
-  <si>
-    <t>[9, 9, 9]</t>
+    <t>[100, 10, 10]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,16 +447,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-0.01507471700647312</v>
+        <v>-0.1139241218371717</v>
       </c>
       <c r="D2">
-        <v>-0.2521745234374141</v>
+        <v>-0.6932834506404788</v>
       </c>
       <c r="E2">
-        <v>-0.03047002014276641</v>
+        <v>-0.1662607199314226</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,16 +467,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.1027796484181133</v>
+        <v>-0.1656210401848979</v>
       </c>
       <c r="D3">
-        <v>-0.6534741519118263</v>
+        <v>-0.9281485072935729</v>
       </c>
       <c r="E3">
-        <v>-0.1439447748809047</v>
+        <v>-0.2064684849153992</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -508,16 +487,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.01528345473664927</v>
+        <v>-0.06627201261069238</v>
       </c>
       <c r="D4">
-        <v>-0.2541040273236627</v>
+        <v>-0.4845505764741777</v>
       </c>
       <c r="E4">
-        <v>-0.05338730059917202</v>
+        <v>-0.1465747662767852</v>
       </c>
       <c r="F4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -528,16 +507,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.03521365116463127</v>
+        <v>-0.007698455073212651</v>
       </c>
       <c r="D5">
-        <v>-0.02207212207691567</v>
+        <v>-0.2185344052750012</v>
       </c>
       <c r="E5">
-        <v>0.1263108442771608</v>
+        <v>-0.02444537406708121</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,16 +527,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-0.02508792639863355</v>
+        <v>-0.05704059180129895</v>
       </c>
       <c r="D6">
-        <v>-0.3001469334749849</v>
+        <v>-0.4448528751834248</v>
       </c>
       <c r="E6">
-        <v>-0.05731348143092785</v>
+        <v>-0.1088527402171786</v>
       </c>
       <c r="F6">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -568,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1029466032940376</v>
+        <v>0.07315035995250296</v>
       </c>
       <c r="D7">
-        <v>0.2924196208025606</v>
+        <v>0.1535019322991692</v>
       </c>
       <c r="E7">
-        <v>0.3536464928439015</v>
+        <v>0.2401524145983502</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -588,16 +567,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.04475959407912544</v>
+        <v>-0.0495881176677635</v>
       </c>
       <c r="D8">
-        <v>0.0218204089664473</v>
+        <v>-0.4165067037299109</v>
       </c>
       <c r="E8">
-        <v>0.07096586264303814</v>
+        <v>-0.08387793740111887</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -608,16 +587,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>-0.02794692426982881</v>
+        <v>-0.05841317756270403</v>
       </c>
       <c r="D9">
-        <v>-0.3173062321975005</v>
+        <v>-0.459536910072343</v>
       </c>
       <c r="E9">
-        <v>-0.04886987508578253</v>
+        <v>-0.09947989273132221</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -628,156 +607,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>-0.03873147051204029</v>
+        <v>-0.002091914203190548</v>
       </c>
       <c r="D10">
-        <v>-0.3690375080390432</v>
+        <v>-0.1976780041805686</v>
       </c>
       <c r="E10">
-        <v>-0.06806235558596836</v>
+        <v>-0.003605923579741304</v>
       </c>
       <c r="F10">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>-0.09473585649630567</v>
-      </c>
-      <c r="D11">
-        <v>-0.6163041754524166</v>
-      </c>
-      <c r="E11">
-        <v>-0.1540848235464702</v>
-      </c>
-      <c r="F11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>-0.02177138929265499</v>
-      </c>
-      <c r="D12">
-        <v>-0.283504588115722</v>
-      </c>
-      <c r="E12">
-        <v>-0.03619962848741284</v>
-      </c>
-      <c r="F12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>-0.02014736576061671</v>
-      </c>
-      <c r="D13">
-        <v>-0.2756697107984596</v>
-      </c>
-      <c r="E13">
-        <v>-0.04506258144740797</v>
-      </c>
-      <c r="F13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>-0.06751483124827995</v>
-      </c>
-      <c r="D14">
-        <v>-0.4933303843108038</v>
-      </c>
-      <c r="E14">
-        <v>-0.1179215644647014</v>
-      </c>
-      <c r="F14">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>-0.06871296685312966</v>
-      </c>
-      <c r="D15">
-        <v>-0.4997315570484756</v>
-      </c>
-      <c r="E15">
-        <v>-0.1380552278771606</v>
-      </c>
-      <c r="F15">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0.02134188938962311</v>
-      </c>
-      <c r="D16">
-        <v>-0.08591962411216303</v>
-      </c>
-      <c r="E16">
-        <v>0.06411464392037687</v>
-      </c>
-      <c r="F16">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>0.03540793395269226</v>
-      </c>
-      <c r="D17">
-        <v>-0.02117512795191881</v>
-      </c>
-      <c r="E17">
-        <v>0.09113295704401064</v>
-      </c>
-      <c r="F17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
